--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_230.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_230.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1681818181818182</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'C/5', 'C']]</t>
-        </is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_77</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03025568181818182</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'E']]</t>
+          <t>[['C:7', 'F', 'F'], ['F/5', 'D:7', 'G:min7'], ['F:7', 'Bb', 'B:dim7'], ['G:7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(159.135941, 175.912358)]</t>
+          <t>[['G:7', 'C', 'C'], ['C', 'A:7', 'D:min7'], ['C:7', 'F', 'C:dim7'], ['D:7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.263975, 17.488465)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:21.410000', '0:00:24.830000'), ('0:00:19.400000', '0:00:21.410000'), ('0:00:03.030000', '0:00:05.820000'), ('0:00:09.910000', '0:00:14')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:04.070000', '0:00:07.470000'), ('0:00:52.930000', '0:00:55.760000'), ('0:01:37.410000', '0:01:39.720000'), ('0:00:41.580000', '0:00:45.010000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3055555555555556</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68), (13.74, 16.3)]</t>
+          <t>[['C', 'F', 'C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56), (2.66, 7.98)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:16.179070', '0:00:25.606371')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3296703296703297</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1382352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A', 'B', 'E'], ['B', 'A', 'B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(103.94, 127.8)]</t>
+          <t>[['E/5', 'F#/4', 'B'], ['A', 'G', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(181.06, 223.32)]</t>
+          <t>[('0:00:12.971000', '0:00:19.435000'), ('0:00:07.970000', '0:00:10.727000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:06.195000', '0:02:11.396000'), ('0:00:45.209000', '0:00:50.686000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
-        </is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1373873873873874</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['Eb', 'Bb:9', 'Eb', 'F:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.913, 26.611)]</t>
+          <t>[['C:maj', 'G:9', 'C:maj/G', 'D:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(59.22, 71.12)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:15.830000', '0:00:17.340000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:58.420000', '0:01:04.180000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02258628468305888</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['G:dim7', 'C:min7', 'F:7'], ['Bb', 'Bb', 'Bb:7'], ['C:min7', 'F:7', 'Bb:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db'], ['G:dim7', 'Eb:min7', 'Ab:7'], ['Db', 'Db', 'Db:7'], ['Eb:min7', 'Ab:7', 'Db:maj6']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.86, 14.13), (22.32, 25.02), (13.05, 15.24), (22.85, 26.11)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1), (13.42, 15.11), (20.79, 23.6), (35.45, 37.19)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1214285714285714</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'G', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'F', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.482, 9.249)]</t>
+          <t>[['D', 'G/5', 'D', 'G/5']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.631, 5.729)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.98, 20.82)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09722222222222221</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B'], ['E', 'B', 'E'], ['B', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A'], ['D', 'A', 'D'], ['A', 'D', 'G']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.071405, 11.233219), (16.701519, 23.528185), (30.424512, 35.962471)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.734, 8.399), (6.536, 9.774), (45.336, 50.158)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08492822966507177</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'C'], ['C', 'C', 'F']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5238095238095238</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'D/7', 'A/3'], ['A', 'A', 'D']]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.28, 38.58), (36.0, 37.28)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(10.12979, 11.569428), (14.448702, 17.908476)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:15.880793', '0:01:44.302018')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(229.26, 241.06)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(242.22, 246.98)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1050531914893617</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj6', 'B:hdim7', 'E:(3,5,b7,b9)', 'A:min7']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:min6', 'C:(3,5,b7,b9)', 'F:min7']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(20.45, 27.7)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(28.42, 31.66)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07350066463366955</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:dim7', 'Bb', 'F:7', 'Bb'], ['F:7', 'F:7', 'Bb', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Eb:7', 'Ab', 'F:7']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(18.7, 20.83), (26.0, 28.59)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(62.36, 66.92), (10.94, 14.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['Bb', 'F', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj'], ['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.51, 13.91), (0.46, 3.22)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.8, 21.34), (45.48, 48.0)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
